--- a/16_SEMANA_GESTIÓN_INVENTARIO_GUI/inventario.xlsx
+++ b/16_SEMANA_GESTIÓN_INVENTARIO_GUI/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -485,28 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MONITOR</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/16_SEMANA_GESTIÓN_INVENTARIO_GUI/inventario.xlsx
+++ b/16_SEMANA_GESTIÓN_INVENTARIO_GUI/inventario.xlsx
@@ -458,37 +458,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TECLADO</t>
+          <t>MONITOR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MOUSE</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
